--- a/data/QUBEKit2-data.xlsx
+++ b/data/QUBEKit2-data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="217">
   <si>
     <t>QUBE Hyperparameter Optimisation</t>
   </si>
@@ -207,12 +207,6 @@
   </si>
   <si>
     <t>1.424 / 1.205</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>requires restarts; 11 rerun, 12 rerunning</t>
   </si>
   <si>
     <t>TEST1</t>
@@ -1865,41 +1859,10 @@
       <c r="L20" s="21"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="9"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
@@ -1915,24 +1878,42 @@
     </row>
     <row r="22">
       <c r="L22" s="21"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
     </row>
     <row r="23">
-      <c r="L23" s="21"/>
+      <c r="A23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="10" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
@@ -1971,70 +1952,34 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="10" t="s">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26">
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+    <row r="29">
+      <c r="A29" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2087,23 +2032,23 @@
         <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
@@ -2117,7 +2062,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -2282,7 +2227,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -2447,7 +2392,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2556,7 +2501,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
@@ -2614,7 +2559,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2671,7 +2616,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -2939,7 +2884,7 @@
     </row>
     <row r="24">
       <c r="O24" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ref="P24:Q24" si="16">AVERAGE(P3:P22)</f>
@@ -2952,7 +2897,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -2997,7 +2942,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>16</v>
@@ -3038,7 +2983,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>16</v>
@@ -3097,7 +3042,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
@@ -3187,7 +3132,7 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
@@ -3235,10 +3180,10 @@
         <v>4.0</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="25"/>
@@ -3285,10 +3230,10 @@
         <v>48.0</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="25"/>
@@ -3420,39 +3365,39 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R8" s="26"/>
       <c r="S8" s="27"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -3472,81 +3417,81 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="S9" s="31" t="s">
         <v>102</v>
-      </c>
-      <c r="R9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>104</v>
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="W9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="V9" s="8" t="s">
+      <c r="X9" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="Y9" s="8"/>
       <c r="Z9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA9" s="8" t="s">
+      <c r="AC9" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="AB9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -3554,7 +3499,7 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="8">
         <v>0.792</v>
@@ -3643,7 +3588,7 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="8">
         <v>1.11</v>
@@ -3730,7 +3675,7 @@
         <v>3.0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="8">
         <v>0.889</v>
@@ -3819,7 +3764,7 @@
         <v>5.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="23">
         <v>0.779</v>
@@ -3908,7 +3853,7 @@
         <v>6.0</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="23">
         <v>1.001</v>
@@ -3996,7 +3941,7 @@
         <v>7.0</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="23">
         <v>1.13</v>
@@ -4085,7 +4030,7 @@
         <v>8.0</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C16" s="23">
         <v>1.065</v>
@@ -4174,7 +4119,7 @@
         <v>9.0</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" s="23">
         <v>1.08</v>
@@ -4262,7 +4207,7 @@
         <v>10.0</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="23">
         <v>1.018</v>
@@ -4349,7 +4294,7 @@
         <v>11.0</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="23">
         <v>0.809</v>
@@ -4438,7 +4383,7 @@
         <v>12.0</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C20" s="23">
         <v>0.655</v>
@@ -4527,7 +4472,7 @@
         <v>13.0</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C21" s="23">
         <v>1.06</v>
@@ -4614,7 +4559,7 @@
         <v>14.0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C22" s="23">
         <v>0.839</v>
@@ -4702,7 +4647,7 @@
         <v>15.0</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C23" s="23">
         <v>0.88</v>
@@ -4791,7 +4736,7 @@
         <v>16.0</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C24" s="23">
         <v>0.815</v>
@@ -4878,7 +4823,7 @@
         <v>17.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="23">
         <v>0.8736</v>
@@ -4967,7 +4912,7 @@
         <v>18.0</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="41">
         <v>0.67957</v>
@@ -5069,7 +5014,7 @@
         <v>19.0</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="23">
         <v>0.69851</v>
@@ -5157,7 +5102,7 @@
         <v>20.0</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="23">
         <v>0.7263999999999999</v>
@@ -5245,7 +5190,7 @@
         <v>21.0</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="23">
         <v>0.75561</v>
@@ -5332,7 +5277,7 @@
         <v>22.0</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="41">
         <v>0.857</v>
@@ -5434,7 +5379,7 @@
         <v>23.0</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C31" s="23">
         <v>0.994</v>
@@ -5521,7 +5466,7 @@
         <v>24.0</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32" s="23">
         <v>0.81272</v>
@@ -5608,7 +5553,7 @@
         <v>25.0</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" s="23">
         <v>0.9952000000000001</v>
@@ -5696,7 +5641,7 @@
         <v>26.0</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C34" s="41">
         <v>0.923</v>
@@ -5798,7 +5743,7 @@
         <v>27.0</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="23">
         <v>0.779</v>
@@ -5885,7 +5830,7 @@
         <v>28.0</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C36" s="23">
         <v>1.065</v>
@@ -5974,7 +5919,7 @@
         <v>29.0</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C37" s="23">
         <v>1.111</v>
@@ -6063,7 +6008,7 @@
         <v>30.0</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C38" s="23">
         <v>0.844</v>
@@ -6152,7 +6097,7 @@
         <v>31.0</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="23">
         <v>1.098</v>
@@ -6240,7 +6185,7 @@
         <v>32.0</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C40" s="23">
         <v>1.165</v>
@@ -6329,7 +6274,7 @@
         <v>33.0</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="23">
         <v>0.945</v>
@@ -6417,7 +6362,7 @@
         <v>34.0</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C42" s="23">
         <v>0.8546</v>
@@ -6506,7 +6451,7 @@
         <v>35.0</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C43" s="23">
         <v>1.162</v>
@@ -6595,7 +6540,7 @@
         <v>36.0</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C44" s="23">
         <v>1.124</v>
@@ -6684,7 +6629,7 @@
         <v>37.0</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="23">
         <v>0.923</v>
@@ -6772,7 +6717,7 @@
         <v>38.0</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C46" s="23">
         <v>0.951</v>
@@ -6859,7 +6804,7 @@
         <v>39.0</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" s="41">
         <v>1.135</v>
@@ -6961,7 +6906,7 @@
         <v>40.0</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" s="23">
         <v>0.939</v>
@@ -7048,7 +6993,7 @@
         <v>41.0</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="23">
         <v>0.8217000000000001</v>
@@ -7136,7 +7081,7 @@
         <v>42.0</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="23">
         <v>1.0139</v>
@@ -7223,7 +7168,7 @@
         <v>43.0</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C51" s="23">
         <v>1.257128</v>
@@ -7310,7 +7255,7 @@
         <v>44.0</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C52" s="23">
         <v>0.982</v>
@@ -7397,7 +7342,7 @@
         <v>45.0</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C53" s="23">
         <v>0.844</v>
@@ -7484,7 +7429,7 @@
         <v>46.0</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C54" s="23">
         <v>1.005</v>
@@ -7572,7 +7517,7 @@
         <v>47.0</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" s="23">
         <v>0.898</v>
@@ -7659,7 +7604,7 @@
         <v>49.0</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="23">
         <v>0.957</v>
@@ -7747,7 +7692,7 @@
         <v>50.0</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C57" s="23">
         <v>0.807</v>
@@ -7834,7 +7779,7 @@
         <v>51.0</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C58" s="23">
         <v>0.826</v>
@@ -7921,7 +7866,7 @@
         <v>52.0</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C59" s="23">
         <v>0.967</v>
@@ -8008,7 +7953,7 @@
         <v>53.0</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="23">
         <v>1.106</v>
@@ -8107,7 +8052,7 @@
       <c r="E62" s="58"/>
       <c r="F62" s="58"/>
       <c r="G62" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H62" s="60">
         <f t="shared" ref="H62:I62" si="207">AVERAGE(H10:H60)</f>
@@ -8131,7 +8076,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
       <c r="Q62" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="R62" s="62">
         <f t="shared" ref="R62:S62" si="209">AVERAGE(R10:R60)</f>
@@ -8144,7 +8089,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="V62" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W62" s="62">
         <f t="shared" ref="W62:X62" si="210">AVERAGE(W10:W60)</f>
@@ -8157,7 +8102,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB62" s="62">
         <f t="shared" ref="AB62:AC62" si="211">AVERAGE(AB10:AB60)</f>
@@ -14804,7 +14749,7 @@
     <row r="1">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="8"/>
       <c r="E1" s="8"/>
@@ -14819,7 +14764,7 @@
     <row r="2">
       <c r="A2" s="8"/>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
@@ -14846,26 +14791,26 @@
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="Y4" s="65" t="s">
         <v>163</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y4" s="65" t="s">
-        <v>165</v>
       </c>
       <c r="Z4" s="66"/>
       <c r="AA4" s="66"/>
@@ -14873,79 +14818,79 @@
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="J5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" s="8" t="s">
+      <c r="O5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="8" t="s">
+      <c r="T5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="W5" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="X5" s="8"/>
       <c r="Y5" s="67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="Z5" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB5" s="67" t="s">
         <v>102</v>
-      </c>
-      <c r="AA5" s="67" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB5" s="67" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" s="68">
         <v>787.0</v>
@@ -15031,7 +14976,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="8">
         <v>787.0</v>
@@ -15112,7 +15057,7 @@
     </row>
     <row r="8">
       <c r="A8" s="70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B8" s="70">
         <v>733.0</v>
@@ -15198,7 +15143,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B9" s="8">
         <v>736.0</v>
@@ -15279,7 +15224,7 @@
     </row>
     <row r="10">
       <c r="A10" s="72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="72">
         <v>713.0</v>
@@ -15365,7 +15310,7 @@
     </row>
     <row r="11">
       <c r="A11" s="72" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B11" s="72">
         <v>862.0</v>
@@ -15451,7 +15396,7 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B12" s="8">
         <v>861.0</v>
@@ -15532,7 +15477,7 @@
     </row>
     <row r="13">
       <c r="A13" s="70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" s="70">
         <v>944.0</v>
@@ -15618,7 +15563,7 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="8">
         <v>973.0</v>
@@ -15699,7 +15644,7 @@
     </row>
     <row r="15">
       <c r="A15" s="70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" s="70">
         <v>1022.0</v>
@@ -15785,7 +15730,7 @@
     </row>
     <row r="16">
       <c r="A16" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" s="68">
         <v>810.0</v>
@@ -15871,7 +15816,7 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B17" s="8">
         <v>620.0</v>
@@ -15952,7 +15897,7 @@
     </row>
     <row r="18">
       <c r="A18" s="70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="70">
         <v>662.0</v>
@@ -16038,7 +15983,7 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B19" s="8">
         <v>785.0</v>
@@ -16119,7 +16064,7 @@
     </row>
     <row r="20">
       <c r="A20" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B20" s="68">
         <v>785.0</v>
@@ -16205,7 +16150,7 @@
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21" s="8">
         <v>1096.0</v>
@@ -16286,7 +16231,7 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22" s="8">
         <v>831.28</v>
@@ -16367,7 +16312,7 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B23" s="8">
         <v>817.6</v>
@@ -16448,7 +16393,7 @@
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B24" s="8">
         <v>1182.86</v>
@@ -16529,7 +16474,7 @@
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B25" s="8">
         <v>867.47</v>
@@ -16610,7 +16555,7 @@
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B26" s="8">
         <v>1153.0</v>
@@ -16691,7 +16636,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B27" s="8">
         <v>1345.5</v>
@@ -16772,7 +16717,7 @@
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B28" s="8">
         <v>1209.52</v>
@@ -16853,7 +16798,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B29" s="8">
         <v>1282.14</v>
@@ -16934,7 +16879,7 @@
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" s="8">
         <v>1989.9</v>
@@ -17015,10 +16960,10 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" ref="G32:H32" si="103">AVERAGE(G6:G30)</f>
@@ -17066,11 +17011,11 @@
     </row>
     <row r="33">
       <c r="A33" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B33" s="73"/>
       <c r="F33" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" ref="G33:H33" si="108">MAX(G6:G30)</f>
@@ -17118,19 +17063,19 @@
     </row>
     <row r="34">
       <c r="A34" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B34" s="74"/>
     </row>
     <row r="35">
       <c r="A35" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" s="71"/>
     </row>
     <row r="36">
       <c r="F36" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" ref="G36:H36" si="113">AVERAGE(G6:G20)</f>
@@ -17187,7 +17132,7 @@
     </row>
     <row r="37">
       <c r="F37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" ref="G37:H37" si="118">AVERAGE(G21:G30)</f>
@@ -17259,7 +17204,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="75" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -17317,7 +17262,7 @@
     </row>
     <row r="3">
       <c r="A3" s="75" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -17347,40 +17292,40 @@
     </row>
     <row r="4">
       <c r="A4" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="D4" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="E4" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="F4" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="G4" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="H4" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="I4" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="J4" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="K4" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="L4" s="77" t="s">
         <v>212</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="L4" s="77" t="s">
-        <v>214</v>
       </c>
       <c r="M4" s="76"/>
       <c r="N4" s="76"/>
@@ -17411,7 +17356,7 @@
         <v>0.1885</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F5" s="77"/>
       <c r="G5" s="77"/>
@@ -17449,7 +17394,7 @@
         <v>0.1158</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="77"/>
       <c r="E6" s="77"/>
@@ -17492,7 +17437,7 @@
         <v>0.2003</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
@@ -17534,7 +17479,7 @@
         <v>0.1207</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="77"/>
@@ -17576,7 +17521,7 @@
         <v>0.1161</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="77"/>
@@ -17618,7 +17563,7 @@
         <v>0.168</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E10" s="77"/>
       <c r="F10" s="77"/>
@@ -17663,7 +17608,7 @@
         <v>0.1034</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
@@ -17710,7 +17655,7 @@
         <v>0.0874</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G12" s="77"/>
       <c r="H12" s="77"/>
@@ -17747,7 +17692,7 @@
         <v>0.0536</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D13" s="77"/>
       <c r="E13" s="77"/>
@@ -17793,7 +17738,7 @@
         <v>0.0682</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
@@ -17840,7 +17785,7 @@
         <v>0.1429</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G15" s="77"/>
       <c r="H15" s="77"/>
@@ -17889,7 +17834,7 @@
         <v>0.1565</v>
       </c>
       <c r="G16" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H16" s="77"/>
       <c r="I16" s="77"/>
@@ -17943,7 +17888,7 @@
         <v>0.0914</v>
       </c>
       <c r="I17" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J17" s="77"/>
       <c r="K17" s="77">
@@ -17992,7 +17937,7 @@
         <v>0.2566</v>
       </c>
       <c r="H18" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I18" s="77"/>
       <c r="J18" s="77"/>
@@ -18042,7 +17987,7 @@
         <v>0.1044</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I19" s="77"/>
       <c r="J19" s="77"/>
@@ -18083,7 +18028,7 @@
         <v>0.1351</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
@@ -18121,7 +18066,7 @@
         <v>0.0651</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D21" s="77"/>
       <c r="E21" s="77"/>
@@ -18170,7 +18115,7 @@
         <v>0.1297</v>
       </c>
       <c r="F22" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G22" s="77"/>
       <c r="H22" s="77"/>
@@ -18207,7 +18152,7 @@
         <v>0.0777</v>
       </c>
       <c r="C23" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D23" s="77"/>
       <c r="E23" s="77"/>
@@ -18247,7 +18192,7 @@
         <v>0.1107</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="77"/>
       <c r="E24" s="77"/>
@@ -18293,7 +18238,7 @@
         <v>0.1074</v>
       </c>
       <c r="E25" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F25" s="77"/>
       <c r="G25" s="77"/>
@@ -18337,7 +18282,7 @@
         <v>0.1796</v>
       </c>
       <c r="E26" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F26" s="77"/>
       <c r="G26" s="77"/>
@@ -18375,7 +18320,7 @@
         <v>0.0431</v>
       </c>
       <c r="C27" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D27" s="77"/>
       <c r="E27" s="77"/>
@@ -18436,7 +18381,7 @@
         <v>0.042</v>
       </c>
       <c r="J28" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K28" s="77">
         <f t="shared" si="1"/>
@@ -18538,7 +18483,7 @@
         <v>0.1006</v>
       </c>
       <c r="H30" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I30" s="77"/>
       <c r="J30" s="77"/>
@@ -18585,7 +18530,7 @@
         <v>0.0654</v>
       </c>
       <c r="G31" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H31" s="77"/>
       <c r="I31" s="77"/>
@@ -18633,7 +18578,7 @@
         <v>0.1913</v>
       </c>
       <c r="G32" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H32" s="77"/>
       <c r="I32" s="77"/>
@@ -18687,7 +18632,7 @@
         <v>0.1642</v>
       </c>
       <c r="I33" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J33" s="77"/>
       <c r="K33" s="77">
@@ -18727,7 +18672,7 @@
         <v>0.1085</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F34" s="77"/>
       <c r="G34" s="77"/>
@@ -18765,7 +18710,7 @@
         <v>0.079</v>
       </c>
       <c r="C35" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D35" s="77"/>
       <c r="E35" s="77"/>
@@ -18817,7 +18762,7 @@
         <v>0.2729</v>
       </c>
       <c r="G36" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H36" s="77"/>
       <c r="I36" s="77"/>
@@ -18865,7 +18810,7 @@
         <v>0.0799</v>
       </c>
       <c r="G37" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H37" s="77"/>
       <c r="I37" s="77"/>
@@ -18919,7 +18864,7 @@
         <v>0.0938</v>
       </c>
       <c r="I38" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J38" s="77"/>
       <c r="K38" s="77">
@@ -18956,7 +18901,7 @@
       <c r="H39" s="76"/>
       <c r="I39" s="76"/>
       <c r="J39" s="75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K39" s="78">
         <f t="shared" ref="K39:L39" si="3">SUM(K11:K38)</f>
@@ -18993,7 +18938,7 @@
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
       <c r="K40" s="75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L40" s="78">
         <f>K39/L39</f>
@@ -19044,7 +18989,7 @@
     </row>
     <row r="42">
       <c r="A42" s="75" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B42" s="77"/>
       <c r="C42" s="77"/>
@@ -19074,34 +19019,34 @@
     </row>
     <row r="43">
       <c r="A43" s="77" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="77" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B43" s="77" t="s">
+      <c r="D43" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="C43" s="77" t="s">
+      <c r="E43" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="F43" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="77" t="s">
+      <c r="G43" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="77" t="s">
+      <c r="H43" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="77" t="s">
+      <c r="I43" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="H43" s="77" t="s">
+      <c r="J43" s="77" t="s">
         <v>210</v>
-      </c>
-      <c r="I43" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="J43" s="77" t="s">
-        <v>212</v>
       </c>
       <c r="K43" s="76"/>
       <c r="L43" s="76"/>
@@ -19134,7 +19079,7 @@
         <v>0.187</v>
       </c>
       <c r="E44" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F44" s="77"/>
       <c r="G44" s="77"/>
@@ -19172,7 +19117,7 @@
         <v>0.168</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D45" s="77"/>
       <c r="E45" s="77"/>
@@ -19215,7 +19160,7 @@
         <v>0.116</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E46" s="77"/>
       <c r="F46" s="77"/>
@@ -19257,7 +19202,7 @@
         <v>0.195</v>
       </c>
       <c r="D47" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E47" s="77"/>
       <c r="F47" s="77"/>
@@ -19299,7 +19244,7 @@
         <v>0.041</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E48" s="77"/>
       <c r="F48" s="77"/>
@@ -19341,7 +19286,7 @@
         <v>0.063</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E49" s="77"/>
       <c r="F49" s="77"/>
@@ -19386,7 +19331,7 @@
         <v>0.021</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F50" s="77"/>
       <c r="G50" s="77"/>
@@ -19433,7 +19378,7 @@
         <v>0.042</v>
       </c>
       <c r="F51" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G51" s="77"/>
       <c r="H51" s="77"/>
@@ -19470,7 +19415,7 @@
         <v>0.154</v>
       </c>
       <c r="C52" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D52" s="77"/>
       <c r="E52" s="77"/>
@@ -19516,7 +19461,7 @@
         <v>0.051</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F53" s="77"/>
       <c r="G53" s="77"/>
@@ -19563,7 +19508,7 @@
         <v>0.06</v>
       </c>
       <c r="F54" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G54" s="77"/>
       <c r="H54" s="77"/>
@@ -19612,7 +19557,7 @@
         <v>0.076</v>
       </c>
       <c r="G55" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H55" s="77"/>
       <c r="I55" s="77"/>
@@ -19666,7 +19611,7 @@
         <v>0.062</v>
       </c>
       <c r="I56" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J56" s="77"/>
       <c r="K56" s="77">
@@ -19715,7 +19660,7 @@
         <v>0.052</v>
       </c>
       <c r="H57" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I57" s="77"/>
       <c r="J57" s="77"/>
@@ -19765,7 +19710,7 @@
         <v>0.052</v>
       </c>
       <c r="H58" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I58" s="77"/>
       <c r="J58" s="77"/>
@@ -19806,7 +19751,7 @@
         <v>0.05</v>
       </c>
       <c r="E59" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F59" s="77"/>
       <c r="G59" s="77"/>
@@ -19844,7 +19789,7 @@
         <v>0.031</v>
       </c>
       <c r="C60" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" s="77"/>
       <c r="E60" s="77"/>
@@ -19893,7 +19838,7 @@
         <v>0.056</v>
       </c>
       <c r="F61" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G61" s="77"/>
       <c r="H61" s="77"/>
@@ -19930,7 +19875,7 @@
         <v>0.155</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D62" s="77"/>
       <c r="E62" s="77"/>
@@ -19970,7 +19915,7 @@
         <v>0.197</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D63" s="77"/>
       <c r="E63" s="77"/>
@@ -20016,7 +19961,7 @@
         <v>0.045</v>
       </c>
       <c r="E64" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F64" s="77"/>
       <c r="G64" s="77"/>
@@ -20060,7 +20005,7 @@
         <v>0.256</v>
       </c>
       <c r="E65" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F65" s="77"/>
       <c r="G65" s="77"/>
@@ -20098,7 +20043,7 @@
         <v>0.044</v>
       </c>
       <c r="C66" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D66" s="77"/>
       <c r="E66" s="77"/>
@@ -20159,7 +20104,7 @@
         <v>0.022</v>
       </c>
       <c r="J67" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K67" s="77">
         <f t="shared" si="4"/>
@@ -20261,7 +20206,7 @@
         <v>0.047</v>
       </c>
       <c r="H69" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I69" s="77"/>
       <c r="J69" s="77"/>
@@ -20308,7 +20253,7 @@
         <v>0.055</v>
       </c>
       <c r="G70" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H70" s="77"/>
       <c r="I70" s="77"/>
@@ -20356,7 +20301,7 @@
         <v>0.122</v>
       </c>
       <c r="G71" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H71" s="77"/>
       <c r="I71" s="77"/>
@@ -20410,7 +20355,7 @@
         <v>0.096</v>
       </c>
       <c r="I72" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J72" s="77"/>
       <c r="K72" s="77">
@@ -20450,7 +20395,7 @@
         <v>0.065</v>
       </c>
       <c r="E73" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F73" s="77"/>
       <c r="G73" s="77"/>
@@ -20488,7 +20433,7 @@
         <v>0.107</v>
       </c>
       <c r="C74" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="77"/>
       <c r="E74" s="77"/>
@@ -20540,7 +20485,7 @@
         <v>0.116</v>
       </c>
       <c r="G75" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H75" s="77"/>
       <c r="I75" s="77"/>
@@ -20588,7 +20533,7 @@
         <v>0.05</v>
       </c>
       <c r="G76" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H76" s="77"/>
       <c r="I76" s="77"/>
@@ -20642,7 +20587,7 @@
         <v>0.048</v>
       </c>
       <c r="I77" s="77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J77" s="77"/>
       <c r="K77" s="77">
@@ -20679,7 +20624,7 @@
       <c r="H78" s="76"/>
       <c r="I78" s="76"/>
       <c r="J78" s="75" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K78" s="78">
         <f t="shared" ref="K78:L78" si="6">SUM(K50:K77)</f>
@@ -20716,7 +20661,7 @@
       <c r="I79" s="76"/>
       <c r="J79" s="76"/>
       <c r="K79" s="75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L79" s="78">
         <f>K78/L78</f>
